--- a/Backend/data/stories.xlsx
+++ b/Backend/data/stories.xlsx
@@ -397,12 +397,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="10"/>
+    <col min="1" max="1" customWidth="1" width="15"/>
     <col min="2" max="2" customWidth="1" width="44"/>
     <col min="3" max="3" customWidth="1" width="50"/>
     <col min="4" max="4" customWidth="1" width="21"/>
@@ -553,19 +553,19 @@
         <v/>
       </c>
       <c r="H4">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" t="str">
         <v>active</v>
       </c>
       <c r="K4" t="str">
-        <v>2025-08-17T19:58:27.220Z</v>
+        <v>2025-08-18T09:03:06.910Z</v>
       </c>
       <c r="L4" t="str">
-        <v>2025-08-17T20:09:18.772Z</v>
+        <v>2025-08-18T09:21:35.569Z</v>
       </c>
     </row>
     <row r="5">
@@ -606,9 +606,47 @@
         <v>2025-08-17T20:04:36.181Z</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>1755508756424</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Help for Poor</v>
+      </c>
+      <c r="C6" t="str">
+        <v>help them</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>medium</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <v>active</v>
+      </c>
+      <c r="K6" t="str">
+        <v>2025-08-18T09:19:16.424Z</v>
+      </c>
+      <c r="L6" t="str">
+        <v>2025-08-18T09:19:16.433Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>